--- a/SGPD.xlsx
+++ b/SGPD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\あんずのファイル\高専\事例研究\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{150D094B-B21E-4B1A-B5BF-B04096635033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F363DD-28FA-4024-9D61-5D7103F245C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="864" windowWidth="15276" windowHeight="11496" xr2:uid="{83A5AEBE-2C14-4A53-89FF-E5FD5F0B347E}"/>
+    <workbookView xWindow="12120" yWindow="7416" windowWidth="15276" windowHeight="11496" xr2:uid="{83A5AEBE-2C14-4A53-89FF-E5FD5F0B347E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
   <si>
     <t>二十日ネル</t>
     <rPh sb="0" eb="3">
@@ -883,482 +883,6 @@
   </si>
   <si>
     <t>ベティワトソン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x000000000000000000000000000001</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x000000000000000000000000000002</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x000000000000000000000000000004</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x000000000000000000000000000008</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x000000000000000000000000000010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x000000000000000000000000000020</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x000000000000000000000000000040</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x000000000000000000000000000080</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x000000000000000000000000000100</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x000000000000000000000000001000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x000000000000000000000000010000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x000000000000000000000000100000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x000000000000000000000001000000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x000000000000000000000010000000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x000000000000000000000100000000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x000000000000000000001000000000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x000000000000000000010000000000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x000000000000000000100000000000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x000000000000000001000000000000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x000000000000000010000000000000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x000000000000000100000000000000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x000000000000001000000000000000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x000000000000010000000000000000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x000000000000100000000000000000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x000000000001000000000000000000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x000000000010000000000000000000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x000000000100000000000000000000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x000000001000000000000000000000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x000000010000000000000000000000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x000000100000000000000000000000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x000001000000000000000000000000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x000010000000000000000000000000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x000100000000000000000000000000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x001000000000000000000000000000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x010000000000000000000000000000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x100000000000000000000000000000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x000000000000000000000000000200</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x000000000000000000000000000400</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x000000000000000000000000000800</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x000000000000000000000000002000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x000000000000000000000000004000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x000000000000000000000000008000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x000000000000000000000000020000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x000000000000000000000000040000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x000000000000000000000000080000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x000000000000000000000000200000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x000000000000000000000000400000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x000000000000000000000000800000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x000000000000000000000002000000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x000000000000000000000004000000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x000000000000000000000008000000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x000000000000000000000020000000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x000000000000000000000040000000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x000000000000000000000080000000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x000000000000000000000200000000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x000000000000000000000400000000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x000000000000000000000800000000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x000000000000000000002000000000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x000000000000000000004000000000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x000000000000000000008000000000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x000000000000000000020000000000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x000000000000000000040000000000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x000000000000000000080000000000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x000000000000000000200000000000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x000000000000000000400000000000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x0000000000000000008000000000000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x000000000000000002000000000000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x000000000000000004000000000000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x000000000000000008000000000000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x000000000000000020000000000000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x000000000000000040000000000000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x000000000000000080000000000000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x000000000000000200000000000000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x000000000000000400000000000000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x000000000000000800000000000000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x000000000000002000000000000000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x000000000000004000000000000000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x000000000000008000000000000000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x000000000000020000000000000000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x000000000000040000000000000000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x000000000000080000000000000000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x000000000000200000000000000000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x000000000000400000000000000000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x0000000000008000000000000000000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x000000000002000000000000000000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x000000000004000000000000000000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x000000000008000000000000000000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x000000000020000000000000000000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x000000000040000000000000000000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x000000000080000000000000000000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x000000000200000000000000000000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x000000000400000000000000000000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x000000000800000000000000000000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x000000002000000000000000000000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x000000004000000000000000000000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x000000008000000000000000000000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x000000020000000000000000000000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x000000040000000000000000000000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x000000080000000000000000000000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x000000200000000000000000000000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x000000400000000000000000000000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x000000800000000000000000000000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x000002000000000000000000000000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x000004000000000000000000000000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x000008000000000000000000000000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x000020000000000000000000000000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x000080000000000000000000000000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x000040000000000000000000000000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x000200000000000000000000000000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x000400000000000000000000000000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x000800000000000000000000000000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x002000000000000000000000000000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x004000000000000000000000000000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x008000000000000000000000000000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x020000000000000000000000000000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x040000000000000000000000000000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x080000000000000000000000000000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x200000000000000000000000000000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x400000000000000000000000000000</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1416,8 +940,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1756,8 +1283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF7DE410-9E1B-498C-835A-3C554EBE687D}">
   <dimension ref="A1:B120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="B121" sqref="B121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1768,962 +1295,962 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>238</v>
+        <v>119</v>
       </c>
       <c r="B1" t="s">
-        <v>239</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>119</v>
+      <c r="B2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>80</v>
       </c>
-      <c r="B3" t="s">
-        <v>120</v>
+      <c r="B3">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>84</v>
       </c>
-      <c r="B4" t="s">
-        <v>121</v>
+      <c r="B4">
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" t="s">
-        <v>122</v>
+      <c r="B5">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" t="s">
-        <v>123</v>
+      <c r="B6">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" t="s">
-        <v>124</v>
+      <c r="B7">
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>4</v>
       </c>
-      <c r="B8" t="s">
-        <v>125</v>
+      <c r="B8">
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>82</v>
       </c>
-      <c r="B9" t="s">
-        <v>126</v>
+      <c r="B9">
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>83</v>
       </c>
-      <c r="B10" t="s">
-        <v>127</v>
+      <c r="B10">
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="B11" t="s">
-        <v>155</v>
+      <c r="B11">
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>79</v>
       </c>
-      <c r="B12" t="s">
-        <v>156</v>
+      <c r="B12">
+        <v>400</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>6</v>
       </c>
-      <c r="B13" t="s">
-        <v>157</v>
+      <c r="B13">
+        <v>800</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>7</v>
       </c>
-      <c r="B14" t="s">
-        <v>128</v>
+      <c r="B14">
+        <v>1000</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>8</v>
       </c>
-      <c r="B15" t="s">
-        <v>158</v>
+      <c r="B15">
+        <v>2000</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>9</v>
       </c>
-      <c r="B16" t="s">
-        <v>159</v>
+      <c r="B16">
+        <v>4000</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>10</v>
       </c>
-      <c r="B17" t="s">
-        <v>160</v>
+      <c r="B17">
+        <v>8000</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>11</v>
       </c>
-      <c r="B18" t="s">
-        <v>129</v>
+      <c r="B18">
+        <v>10000</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>12</v>
       </c>
-      <c r="B19" t="s">
-        <v>161</v>
+      <c r="B19">
+        <v>20000</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>13</v>
       </c>
-      <c r="B20" t="s">
-        <v>162</v>
+      <c r="B20">
+        <v>40000</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>14</v>
       </c>
-      <c r="B21" t="s">
-        <v>163</v>
+      <c r="B21">
+        <v>80000</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>15</v>
       </c>
-      <c r="B22" t="s">
-        <v>130</v>
+      <c r="B22">
+        <v>100000</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>16</v>
       </c>
-      <c r="B23" t="s">
-        <v>164</v>
+      <c r="B23">
+        <v>200000</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>17</v>
       </c>
-      <c r="B24" t="s">
-        <v>165</v>
+      <c r="B24">
+        <v>400000</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>18</v>
       </c>
-      <c r="B25" t="s">
-        <v>166</v>
+      <c r="B25">
+        <v>800000</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>19</v>
       </c>
-      <c r="B26" t="s">
-        <v>131</v>
+      <c r="B26">
+        <v>1000000</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>20</v>
       </c>
-      <c r="B27" t="s">
-        <v>167</v>
+      <c r="B27">
+        <v>2000000</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>81</v>
       </c>
-      <c r="B28" t="s">
-        <v>168</v>
+      <c r="B28">
+        <v>4000000</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>21</v>
       </c>
-      <c r="B29" t="s">
-        <v>169</v>
+      <c r="B29">
+        <v>8000000</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>22</v>
       </c>
-      <c r="B30" t="s">
-        <v>132</v>
+      <c r="B30">
+        <v>10000000</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>23</v>
       </c>
-      <c r="B31" t="s">
-        <v>170</v>
+      <c r="B31">
+        <v>20000000</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>24</v>
       </c>
-      <c r="B32" t="s">
-        <v>171</v>
+      <c r="B32">
+        <v>40000000</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>25</v>
       </c>
-      <c r="B33" t="s">
-        <v>172</v>
+      <c r="B33">
+        <v>80000000</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>26</v>
       </c>
-      <c r="B34" t="s">
-        <v>133</v>
+      <c r="B34">
+        <v>100000000</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>27</v>
       </c>
-      <c r="B35" t="s">
-        <v>173</v>
+      <c r="B35">
+        <v>200000000</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>28</v>
       </c>
-      <c r="B36" t="s">
-        <v>174</v>
+      <c r="B36">
+        <v>400000000</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>29</v>
       </c>
-      <c r="B37" t="s">
-        <v>175</v>
+      <c r="B37">
+        <v>800000000</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>30</v>
       </c>
-      <c r="B38" t="s">
-        <v>134</v>
+      <c r="B38">
+        <v>1000000000</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>31</v>
       </c>
-      <c r="B39" t="s">
-        <v>176</v>
+      <c r="B39">
+        <v>2000000000</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>32</v>
       </c>
-      <c r="B40" t="s">
-        <v>177</v>
+      <c r="B40">
+        <v>4000000000</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>33</v>
       </c>
-      <c r="B41" t="s">
-        <v>178</v>
+      <c r="B41">
+        <v>8000000000</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>34</v>
       </c>
-      <c r="B42" t="s">
-        <v>135</v>
+      <c r="B42">
+        <v>10000000000</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>35</v>
       </c>
-      <c r="B43" t="s">
-        <v>179</v>
+      <c r="B43">
+        <v>20000000000</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>36</v>
       </c>
-      <c r="B44" t="s">
-        <v>180</v>
+      <c r="B44">
+        <v>40000000000</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>37</v>
       </c>
-      <c r="B45" t="s">
-        <v>181</v>
+      <c r="B45">
+        <v>80000000000</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>38</v>
       </c>
-      <c r="B46" t="s">
-        <v>136</v>
+      <c r="B46">
+        <v>100000000000</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>39</v>
       </c>
-      <c r="B47" t="s">
-        <v>182</v>
+      <c r="B47">
+        <v>200000000000</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>40</v>
       </c>
-      <c r="B48" t="s">
-        <v>183</v>
+      <c r="B48">
+        <v>400000000000</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>85</v>
       </c>
-      <c r="B49" t="s">
-        <v>184</v>
+      <c r="B49">
+        <v>8000000000000</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>41</v>
       </c>
-      <c r="B50" t="s">
-        <v>137</v>
+      <c r="B50">
+        <v>1000000000000</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>42</v>
       </c>
-      <c r="B51" t="s">
-        <v>185</v>
+      <c r="B51">
+        <v>2000000000000</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>43</v>
       </c>
-      <c r="B52" t="s">
-        <v>186</v>
+      <c r="B52">
+        <v>4000000000000</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>44</v>
       </c>
-      <c r="B53" t="s">
-        <v>187</v>
+      <c r="B53">
+        <v>8000000000000</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>45</v>
       </c>
-      <c r="B54" t="s">
-        <v>138</v>
+      <c r="B54">
+        <v>10000000000000</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>46</v>
       </c>
-      <c r="B55" t="s">
-        <v>188</v>
+      <c r="B55">
+        <v>20000000000000</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>47</v>
       </c>
-      <c r="B56" t="s">
-        <v>189</v>
+      <c r="B56">
+        <v>40000000000000</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>48</v>
       </c>
-      <c r="B57" t="s">
-        <v>190</v>
+      <c r="B57">
+        <v>80000000000000</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>49</v>
       </c>
-      <c r="B58" t="s">
-        <v>139</v>
+      <c r="B58">
+        <v>100000000000000</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>50</v>
       </c>
-      <c r="B59" t="s">
-        <v>191</v>
+      <c r="B59">
+        <v>200000000000000</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>51</v>
       </c>
-      <c r="B60" t="s">
-        <v>192</v>
+      <c r="B60">
+        <v>400000000000000</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>52</v>
       </c>
-      <c r="B61" t="s">
-        <v>193</v>
+      <c r="B61">
+        <v>800000000000000</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>53</v>
       </c>
-      <c r="B62" t="s">
-        <v>140</v>
+      <c r="B62">
+        <v>1000000000000000</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>54</v>
       </c>
-      <c r="B63" t="s">
-        <v>194</v>
+      <c r="B63">
+        <v>2000000000000000</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>55</v>
       </c>
-      <c r="B64" t="s">
-        <v>195</v>
+      <c r="B64">
+        <v>4000000000000000</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>56</v>
       </c>
-      <c r="B65" t="s">
-        <v>196</v>
+      <c r="B65">
+        <v>8000000000000000</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>57</v>
       </c>
-      <c r="B66" t="s">
-        <v>141</v>
+      <c r="B66">
+        <v>1E+16</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>58</v>
       </c>
-      <c r="B67" t="s">
-        <v>197</v>
+      <c r="B67">
+        <v>2E+16</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>59</v>
       </c>
-      <c r="B68" t="s">
-        <v>198</v>
+      <c r="B68">
+        <v>4E+16</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>60</v>
       </c>
-      <c r="B69" t="s">
-        <v>199</v>
+      <c r="B69">
+        <v>8E+16</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>61</v>
       </c>
-      <c r="B70" t="s">
-        <v>142</v>
+      <c r="B70">
+        <v>1E+17</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>62</v>
       </c>
-      <c r="B71" t="s">
-        <v>200</v>
+      <c r="B71">
+        <v>2E+17</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>63</v>
       </c>
-      <c r="B72" t="s">
-        <v>201</v>
+      <c r="B72">
+        <v>4E+17</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>64</v>
       </c>
-      <c r="B73" t="s">
-        <v>202</v>
+      <c r="B73">
+        <v>8E+18</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>65</v>
       </c>
-      <c r="B74" t="s">
-        <v>143</v>
+      <c r="B74">
+        <v>1E+18</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>66</v>
       </c>
-      <c r="B75" t="s">
-        <v>203</v>
+      <c r="B75">
+        <v>2E+18</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>67</v>
       </c>
-      <c r="B76" t="s">
-        <v>204</v>
+      <c r="B76">
+        <v>4E+18</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>68</v>
       </c>
-      <c r="B77" t="s">
-        <v>205</v>
+      <c r="B77">
+        <v>8E+18</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>69</v>
       </c>
-      <c r="B78" t="s">
-        <v>144</v>
+      <c r="B78">
+        <v>1E+19</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>70</v>
       </c>
-      <c r="B79" t="s">
-        <v>206</v>
+      <c r="B79">
+        <v>2E+19</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>71</v>
       </c>
-      <c r="B80" t="s">
-        <v>207</v>
+      <c r="B80">
+        <v>4E+19</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>72</v>
       </c>
-      <c r="B81" t="s">
-        <v>208</v>
+      <c r="B81">
+        <v>8E+19</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>73</v>
       </c>
-      <c r="B82" t="s">
-        <v>145</v>
+      <c r="B82">
+        <v>1E+20</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>74</v>
       </c>
-      <c r="B83" t="s">
-        <v>209</v>
+      <c r="B83">
+        <v>2E+20</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>75</v>
       </c>
-      <c r="B84" t="s">
-        <v>210</v>
+      <c r="B84">
+        <v>4E+20</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>76</v>
       </c>
-      <c r="B85" t="s">
-        <v>211</v>
+      <c r="B85">
+        <v>8E+20</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>77</v>
       </c>
-      <c r="B86" t="s">
-        <v>146</v>
+      <c r="B86">
+        <v>1E+21</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>78</v>
       </c>
-      <c r="B87" t="s">
-        <v>212</v>
+      <c r="B87">
+        <v>2E+21</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>86</v>
       </c>
-      <c r="B88" t="s">
-        <v>213</v>
+      <c r="B88">
+        <v>4E+21</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>87</v>
       </c>
-      <c r="B89" t="s">
-        <v>214</v>
+      <c r="B89">
+        <v>8E+21</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>88</v>
       </c>
-      <c r="B90" t="s">
-        <v>147</v>
+      <c r="B90">
+        <v>1E+22</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>89</v>
       </c>
-      <c r="B91" t="s">
-        <v>215</v>
+      <c r="B91">
+        <v>2E+22</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>90</v>
       </c>
-      <c r="B92" t="s">
-        <v>216</v>
+      <c r="B92">
+        <v>4E+22</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>91</v>
       </c>
-      <c r="B93" t="s">
-        <v>217</v>
+      <c r="B93">
+        <v>8E+22</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>92</v>
       </c>
-      <c r="B94" t="s">
-        <v>148</v>
+      <c r="B94">
+        <v>9.9999999999999992E+22</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>93</v>
       </c>
-      <c r="B95" t="s">
-        <v>218</v>
+      <c r="B95">
+        <v>1.9999999999999998E+23</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>94</v>
       </c>
-      <c r="B96" t="s">
-        <v>219</v>
+      <c r="B96">
+        <v>3.9999999999999997E+23</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>95</v>
       </c>
-      <c r="B97" t="s">
-        <v>220</v>
+      <c r="B97">
+        <v>7.9999999999999993E+23</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>96</v>
       </c>
-      <c r="B98" t="s">
-        <v>149</v>
+      <c r="B98">
+        <v>9.9999999999999998E+23</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>97</v>
       </c>
-      <c r="B99" t="s">
-        <v>221</v>
+      <c r="B99">
+        <v>2E+24</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>98</v>
       </c>
-      <c r="B100" t="s">
-        <v>222</v>
+      <c r="B100" s="1">
+        <v>3.9999999999999999E+24</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>99</v>
       </c>
-      <c r="B101" t="s">
-        <v>223</v>
+      <c r="B101">
+        <v>7.9999999999999999E+24</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>100</v>
       </c>
-      <c r="B102" t="s">
-        <v>150</v>
+      <c r="B102">
+        <v>1.0000000000000001E+25</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>101</v>
       </c>
-      <c r="B103" t="s">
-        <v>224</v>
+      <c r="B103">
+        <v>2.0000000000000002E+25</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>102</v>
       </c>
-      <c r="B104" t="s">
-        <v>226</v>
+      <c r="B104">
+        <v>4.0000000000000004E+25</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>103</v>
       </c>
-      <c r="B105" t="s">
-        <v>225</v>
+      <c r="B105">
+        <v>8.0000000000000007E+25</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>104</v>
       </c>
-      <c r="B106" t="s">
-        <v>151</v>
+      <c r="B106">
+        <v>1E+26</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>105</v>
       </c>
-      <c r="B107" t="s">
-        <v>227</v>
+      <c r="B107">
+        <v>2.0000000000000001E+26</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>106</v>
       </c>
-      <c r="B108" t="s">
-        <v>228</v>
+      <c r="B108">
+        <v>4.0000000000000002E+26</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>107</v>
       </c>
-      <c r="B109" t="s">
-        <v>229</v>
+      <c r="B109">
+        <v>8.0000000000000004E+26</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>108</v>
       </c>
-      <c r="B110" t="s">
-        <v>152</v>
+      <c r="B110">
+        <v>1E+27</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>109</v>
       </c>
-      <c r="B111" t="s">
-        <v>230</v>
+      <c r="B111">
+        <v>2E+27</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>110</v>
       </c>
-      <c r="B112" t="s">
-        <v>231</v>
+      <c r="B112">
+        <v>4.0000000000000001E+27</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>111</v>
       </c>
-      <c r="B113" t="s">
-        <v>232</v>
+      <c r="B113">
+        <v>8.0000000000000001E+27</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>112</v>
       </c>
-      <c r="B114" t="s">
-        <v>153</v>
+      <c r="B114">
+        <v>9.9999999999999996E+27</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>113</v>
       </c>
-      <c r="B115" t="s">
-        <v>233</v>
+      <c r="B115">
+        <v>1.9999999999999999E+28</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>114</v>
       </c>
-      <c r="B116" t="s">
-        <v>234</v>
+      <c r="B116">
+        <v>3.9999999999999998E+28</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>115</v>
       </c>
-      <c r="B117" t="s">
-        <v>235</v>
+      <c r="B117">
+        <v>7.9999999999999997E+28</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>116</v>
       </c>
-      <c r="B118" t="s">
-        <v>154</v>
+      <c r="B118">
+        <v>9.9999999999999991E+28</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>117</v>
       </c>
-      <c r="B119" t="s">
-        <v>236</v>
+      <c r="B119">
+        <v>1.9999999999999998E+29</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>118</v>
       </c>
-      <c r="B120" t="s">
-        <v>237</v>
+      <c r="B120">
+        <v>3.9999999999999997E+29</v>
       </c>
     </row>
   </sheetData>

--- a/SGPD.xlsx
+++ b/SGPD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\あんずのファイル\高専\事例研究\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F363DD-28FA-4024-9D61-5D7103F245C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F0A222B-FFD7-4F49-9187-9E9E526AFF47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12120" yWindow="7416" windowWidth="15276" windowHeight="11496" xr2:uid="{83A5AEBE-2C14-4A53-89FF-E5FD5F0B347E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="239">
   <si>
     <t>二十日ネル</t>
     <rPh sb="0" eb="3">
@@ -883,6 +883,478 @@
   </si>
   <si>
     <t>ベティワトソン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x000000000000000000000000000001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x000000000000000000000000000004</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x000000000000000000000000000008</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x000000000000000000000000000010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x000000000000000000000000000020</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x000000000000000000000000000040</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x000000000000000000000000000080</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x000000000000000000000000000100</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x000000000000000000000000001000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x000000000000000000000000010000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x000000000000000000000000100000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x000000000000000000000001000000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x000000000000000000000010000000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x000000000000000000000100000000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x000000000000000000001000000000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x000000000000000000010000000000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x000000000000000000100000000000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x000000000000000001000000000000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x000000000000000010000000000000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x000000000000000100000000000000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x000000000000001000000000000000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x000000000000010000000000000000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x000000000000100000000000000000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x000000000001000000000000000000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x000000000010000000000000000000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x000000000100000000000000000000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x000000001000000000000000000000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x000000010000000000000000000000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x000000100000000000000000000000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x000001000000000000000000000000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x000010000000000000000000000000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x000100000000000000000000000000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x001000000000000000000000000000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x010000000000000000000000000000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x100000000000000000000000000000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x000000000000000000000000000200</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x000000000000000000000000000400</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x000000000000000000000000000800</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x000000000000000000000000002000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x000000000000000000000000004000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x000000000000000000000000008000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x000000000000000000000000020000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x000000000000000000000000040000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x000000000000000000000000080000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x000000000000000000000000200000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x000000000000000000000000400000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x000000000000000000000000800000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x000000000000000000000002000000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x000000000000000000000004000000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x000000000000000000000008000000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x000000000000000000000020000000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x000000000000000000000040000000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x000000000000000000000080000000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x000000000000000000000200000000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x000000000000000000000400000000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x000000000000000000000800000000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x000000000000000000002000000000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x000000000000000000004000000000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x000000000000000000008000000000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x000000000000000000020000000000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x000000000000000000040000000000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x000000000000000000080000000000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x000000000000000000200000000000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x000000000000000000400000000000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x0000000000000000008000000000000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x000000000000000002000000000000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x000000000000000004000000000000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x000000000000000008000000000000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x000000000000000020000000000000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x000000000000000040000000000000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x000000000000000080000000000000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x000000000000000200000000000000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x000000000000000400000000000000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x000000000000000800000000000000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x000000000000002000000000000000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x000000000000004000000000000000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x000000000000008000000000000000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x000000000000020000000000000000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x000000000000040000000000000000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x000000000000080000000000000000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x000000000000200000000000000000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x000000000000400000000000000000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x0000000000008000000000000000000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x000000000002000000000000000000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x000000000004000000000000000000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x000000000008000000000000000000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x000000000020000000000000000000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x000000000040000000000000000000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x000000000080000000000000000000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x000000000200000000000000000000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x000000000400000000000000000000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x000000000800000000000000000000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x000000002000000000000000000000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x000000004000000000000000000000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x000000008000000000000000000000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x000000020000000000000000000000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x000000040000000000000000000000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x000000080000000000000000000000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x000000200000000000000000000000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x000000400000000000000000000000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x000000800000000000000000000000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x000002000000000000000000000000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x000004000000000000000000000000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x000008000000000000000000000000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x000020000000000000000000000000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x000080000000000000000000000000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x000040000000000000000000000000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x000200000000000000000000000000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x000400000000000000000000000000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x000800000000000000000000000000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x002000000000000000000000000000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x004000000000000000000000000000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x008000000000000000000000000000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x020000000000000000000000000000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x040000000000000000000000000000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x080000000000000000000000000000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x200000000000000000000000000000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x400000000000000000000000000000</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -940,11 +1412,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1283,8 +1752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF7DE410-9E1B-498C-835A-3C554EBE687D}">
   <dimension ref="A1:B120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="B121" sqref="B121"/>
+    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1295,962 +1764,962 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>119</v>
+        <v>237</v>
       </c>
       <c r="B1" t="s">
-        <v>120</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>1</v>
+      <c r="B2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>80</v>
       </c>
-      <c r="B3">
-        <v>2</v>
+      <c r="B3" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>84</v>
       </c>
-      <c r="B4">
-        <v>4</v>
+      <c r="B4" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="B5">
-        <v>8</v>
+      <c r="B5" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="B6">
-        <v>10</v>
+      <c r="B6" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B7">
-        <v>20</v>
+      <c r="B7" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>4</v>
       </c>
-      <c r="B8">
-        <v>40</v>
+      <c r="B8" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>82</v>
       </c>
-      <c r="B9">
-        <v>80</v>
+      <c r="B9" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>83</v>
       </c>
-      <c r="B10">
-        <v>100</v>
+      <c r="B10" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="B11">
-        <v>200</v>
+      <c r="B11" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>79</v>
       </c>
-      <c r="B12">
-        <v>400</v>
+      <c r="B12" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>6</v>
       </c>
-      <c r="B13">
-        <v>800</v>
+      <c r="B13" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>7</v>
       </c>
-      <c r="B14">
-        <v>1000</v>
+      <c r="B14" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>8</v>
       </c>
-      <c r="B15">
-        <v>2000</v>
+      <c r="B15" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>9</v>
       </c>
-      <c r="B16">
-        <v>4000</v>
+      <c r="B16" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>10</v>
       </c>
-      <c r="B17">
-        <v>8000</v>
+      <c r="B17" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>11</v>
       </c>
-      <c r="B18">
-        <v>10000</v>
+      <c r="B18" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>12</v>
       </c>
-      <c r="B19">
-        <v>20000</v>
+      <c r="B19" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>13</v>
       </c>
-      <c r="B20">
-        <v>40000</v>
+      <c r="B20" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>14</v>
       </c>
-      <c r="B21">
-        <v>80000</v>
+      <c r="B21" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>15</v>
       </c>
-      <c r="B22">
-        <v>100000</v>
+      <c r="B22" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>16</v>
       </c>
-      <c r="B23">
-        <v>200000</v>
+      <c r="B23" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>17</v>
       </c>
-      <c r="B24">
-        <v>400000</v>
+      <c r="B24" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>18</v>
       </c>
-      <c r="B25">
-        <v>800000</v>
+      <c r="B25" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>19</v>
       </c>
-      <c r="B26">
-        <v>1000000</v>
+      <c r="B26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>20</v>
       </c>
-      <c r="B27">
-        <v>2000000</v>
+      <c r="B27" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>81</v>
       </c>
-      <c r="B28">
-        <v>4000000</v>
+      <c r="B28" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>21</v>
       </c>
-      <c r="B29">
-        <v>8000000</v>
+      <c r="B29" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>22</v>
       </c>
-      <c r="B30">
-        <v>10000000</v>
+      <c r="B30" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>23</v>
       </c>
-      <c r="B31">
-        <v>20000000</v>
+      <c r="B31" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>24</v>
       </c>
-      <c r="B32">
-        <v>40000000</v>
+      <c r="B32" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>25</v>
       </c>
-      <c r="B33">
-        <v>80000000</v>
+      <c r="B33" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>26</v>
       </c>
-      <c r="B34">
-        <v>100000000</v>
+      <c r="B34" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>27</v>
       </c>
-      <c r="B35">
-        <v>200000000</v>
+      <c r="B35" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>28</v>
       </c>
-      <c r="B36">
-        <v>400000000</v>
+      <c r="B36" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>29</v>
       </c>
-      <c r="B37">
-        <v>800000000</v>
+      <c r="B37" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>30</v>
       </c>
-      <c r="B38">
-        <v>1000000000</v>
+      <c r="B38" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>31</v>
       </c>
-      <c r="B39">
-        <v>2000000000</v>
+      <c r="B39" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>32</v>
       </c>
-      <c r="B40">
-        <v>4000000000</v>
+      <c r="B40" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>33</v>
       </c>
-      <c r="B41">
-        <v>8000000000</v>
+      <c r="B41" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>34</v>
       </c>
-      <c r="B42">
-        <v>10000000000</v>
+      <c r="B42" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>35</v>
       </c>
-      <c r="B43">
-        <v>20000000000</v>
+      <c r="B43" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>36</v>
       </c>
-      <c r="B44">
-        <v>40000000000</v>
+      <c r="B44" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>37</v>
       </c>
-      <c r="B45">
-        <v>80000000000</v>
+      <c r="B45" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>38</v>
       </c>
-      <c r="B46">
-        <v>100000000000</v>
+      <c r="B46" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>39</v>
       </c>
-      <c r="B47">
-        <v>200000000000</v>
+      <c r="B47" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>40</v>
       </c>
-      <c r="B48">
-        <v>400000000000</v>
+      <c r="B48" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>85</v>
       </c>
-      <c r="B49">
-        <v>8000000000000</v>
+      <c r="B49" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>41</v>
       </c>
-      <c r="B50">
-        <v>1000000000000</v>
+      <c r="B50" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>42</v>
       </c>
-      <c r="B51">
-        <v>2000000000000</v>
+      <c r="B51" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>43</v>
       </c>
-      <c r="B52">
-        <v>4000000000000</v>
+      <c r="B52" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>44</v>
       </c>
-      <c r="B53">
-        <v>8000000000000</v>
+      <c r="B53" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>45</v>
       </c>
-      <c r="B54">
-        <v>10000000000000</v>
+      <c r="B54" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>46</v>
       </c>
-      <c r="B55">
-        <v>20000000000000</v>
+      <c r="B55" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>47</v>
       </c>
-      <c r="B56">
-        <v>40000000000000</v>
+      <c r="B56" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>48</v>
       </c>
-      <c r="B57">
-        <v>80000000000000</v>
+      <c r="B57" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>49</v>
       </c>
-      <c r="B58">
-        <v>100000000000000</v>
+      <c r="B58" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>50</v>
       </c>
-      <c r="B59">
-        <v>200000000000000</v>
+      <c r="B59" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>51</v>
       </c>
-      <c r="B60">
-        <v>400000000000000</v>
+      <c r="B60" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>52</v>
       </c>
-      <c r="B61">
-        <v>800000000000000</v>
+      <c r="B61" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>53</v>
       </c>
-      <c r="B62">
-        <v>1000000000000000</v>
+      <c r="B62" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>54</v>
       </c>
-      <c r="B63">
-        <v>2000000000000000</v>
+      <c r="B63" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>55</v>
       </c>
-      <c r="B64">
-        <v>4000000000000000</v>
+      <c r="B64" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>56</v>
       </c>
-      <c r="B65">
-        <v>8000000000000000</v>
+      <c r="B65" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>57</v>
       </c>
-      <c r="B66">
-        <v>1E+16</v>
+      <c r="B66" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>58</v>
       </c>
-      <c r="B67">
-        <v>2E+16</v>
+      <c r="B67" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>59</v>
       </c>
-      <c r="B68">
-        <v>4E+16</v>
+      <c r="B68" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>60</v>
       </c>
-      <c r="B69">
-        <v>8E+16</v>
+      <c r="B69" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>61</v>
       </c>
-      <c r="B70">
-        <v>1E+17</v>
+      <c r="B70" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>62</v>
       </c>
-      <c r="B71">
-        <v>2E+17</v>
+      <c r="B71" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>63</v>
       </c>
-      <c r="B72">
-        <v>4E+17</v>
+      <c r="B72" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>64</v>
       </c>
-      <c r="B73">
-        <v>8E+18</v>
+      <c r="B73" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>65</v>
       </c>
-      <c r="B74">
-        <v>1E+18</v>
+      <c r="B74" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>66</v>
       </c>
-      <c r="B75">
-        <v>2E+18</v>
+      <c r="B75" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>67</v>
       </c>
-      <c r="B76">
-        <v>4E+18</v>
+      <c r="B76" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>68</v>
       </c>
-      <c r="B77">
-        <v>8E+18</v>
+      <c r="B77" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>69</v>
       </c>
-      <c r="B78">
-        <v>1E+19</v>
+      <c r="B78" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>70</v>
       </c>
-      <c r="B79">
-        <v>2E+19</v>
+      <c r="B79" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>71</v>
       </c>
-      <c r="B80">
-        <v>4E+19</v>
+      <c r="B80" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>72</v>
       </c>
-      <c r="B81">
-        <v>8E+19</v>
+      <c r="B81" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>73</v>
       </c>
-      <c r="B82">
-        <v>1E+20</v>
+      <c r="B82" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>74</v>
       </c>
-      <c r="B83">
-        <v>2E+20</v>
+      <c r="B83" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>75</v>
       </c>
-      <c r="B84">
-        <v>4E+20</v>
+      <c r="B84" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>76</v>
       </c>
-      <c r="B85">
-        <v>8E+20</v>
+      <c r="B85" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>77</v>
       </c>
-      <c r="B86">
-        <v>1E+21</v>
+      <c r="B86" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>78</v>
       </c>
-      <c r="B87">
-        <v>2E+21</v>
+      <c r="B87" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>86</v>
       </c>
-      <c r="B88">
-        <v>4E+21</v>
+      <c r="B88" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>87</v>
       </c>
-      <c r="B89">
-        <v>8E+21</v>
+      <c r="B89" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>88</v>
       </c>
-      <c r="B90">
-        <v>1E+22</v>
+      <c r="B90" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>89</v>
       </c>
-      <c r="B91">
-        <v>2E+22</v>
+      <c r="B91" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>90</v>
       </c>
-      <c r="B92">
-        <v>4E+22</v>
+      <c r="B92" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>91</v>
       </c>
-      <c r="B93">
-        <v>8E+22</v>
+      <c r="B93" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>92</v>
       </c>
-      <c r="B94">
-        <v>9.9999999999999992E+22</v>
+      <c r="B94" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>93</v>
       </c>
-      <c r="B95">
-        <v>1.9999999999999998E+23</v>
+      <c r="B95" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>94</v>
       </c>
-      <c r="B96">
-        <v>3.9999999999999997E+23</v>
+      <c r="B96" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>95</v>
       </c>
-      <c r="B97">
-        <v>7.9999999999999993E+23</v>
+      <c r="B97" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>96</v>
       </c>
-      <c r="B98">
-        <v>9.9999999999999998E+23</v>
+      <c r="B98" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>97</v>
       </c>
-      <c r="B99">
-        <v>2E+24</v>
+      <c r="B99" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>98</v>
       </c>
-      <c r="B100" s="1">
-        <v>3.9999999999999999E+24</v>
+      <c r="B100" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>99</v>
       </c>
-      <c r="B101">
-        <v>7.9999999999999999E+24</v>
+      <c r="B101" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>100</v>
       </c>
-      <c r="B102">
-        <v>1.0000000000000001E+25</v>
+      <c r="B102" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>101</v>
       </c>
-      <c r="B103">
-        <v>2.0000000000000002E+25</v>
+      <c r="B103" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>102</v>
       </c>
-      <c r="B104">
-        <v>4.0000000000000004E+25</v>
+      <c r="B104" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>103</v>
       </c>
-      <c r="B105">
-        <v>8.0000000000000007E+25</v>
+      <c r="B105" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>104</v>
       </c>
-      <c r="B106">
-        <v>1E+26</v>
+      <c r="B106" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>105</v>
       </c>
-      <c r="B107">
-        <v>2.0000000000000001E+26</v>
+      <c r="B107" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>106</v>
       </c>
-      <c r="B108">
-        <v>4.0000000000000002E+26</v>
+      <c r="B108" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>107</v>
       </c>
-      <c r="B109">
-        <v>8.0000000000000004E+26</v>
+      <c r="B109" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>108</v>
       </c>
-      <c r="B110">
-        <v>1E+27</v>
+      <c r="B110" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>109</v>
       </c>
-      <c r="B111">
-        <v>2E+27</v>
+      <c r="B111" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>110</v>
       </c>
-      <c r="B112">
-        <v>4.0000000000000001E+27</v>
+      <c r="B112" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>111</v>
       </c>
-      <c r="B113">
-        <v>8.0000000000000001E+27</v>
+      <c r="B113" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>112</v>
       </c>
-      <c r="B114">
-        <v>9.9999999999999996E+27</v>
+      <c r="B114" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>113</v>
       </c>
-      <c r="B115">
-        <v>1.9999999999999999E+28</v>
+      <c r="B115" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>114</v>
       </c>
-      <c r="B116">
-        <v>3.9999999999999998E+28</v>
+      <c r="B116" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>115</v>
       </c>
-      <c r="B117">
-        <v>7.9999999999999997E+28</v>
+      <c r="B117" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>116</v>
       </c>
-      <c r="B118">
-        <v>9.9999999999999991E+28</v>
+      <c r="B118" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>117</v>
       </c>
-      <c r="B119">
-        <v>1.9999999999999998E+29</v>
+      <c r="B119" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>118</v>
       </c>
-      <c r="B120">
-        <v>3.9999999999999997E+29</v>
+      <c r="B120" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>
